--- a/public/assets/template/berita-template.xlsx
+++ b/public/assets/template/berita-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\web-prodi-pwk\public\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\web-prodi-pwk\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D4F36-1B8B-40CE-B8B6-902F938CCABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873DE2E-4CF8-4A36-B819-6392DC7B5EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -34,37 +34,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Img</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>logo.png</t>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Data Berita</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet consectetur adipisicing elit.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>unpublish</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Tanggal Pelaksanaan</t>
+  </si>
+  <si>
+    <t>Tanggal Publish</t>
+  </si>
+  <si>
+    <t>25/12/2024</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
+    <t>Tag Berita</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>KKN</t>
+  </si>
+  <si>
+    <t>Penelitian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +115,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +185,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,63 +504,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86521A1-DC6B-4F40-AA0D-147BEF52CF9B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/assets/template/berita-template.xlsx
+++ b/public/assets/template/berita-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\web-prodi-pwk\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873DE2E-4CF8-4A36-B819-6392DC7B5EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFB5E3-CCE8-4DB9-B488-009E2CCAADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="3300" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,9 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Deskripsi</t>
-  </si>
-  <si>
     <t>Data Berita</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet consectetur adipisicing elit.</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>Penelitian</t>
+  </si>
+  <si>
+    <t>Judul Berita</t>
+  </si>
+  <si>
+    <t>Isi Berita</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -184,10 +184,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +507,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,37 +523,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -564,19 +564,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -584,22 +584,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -607,22 +607,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
